--- a/Örnek 31 - Eğer Örneği.xlsx
+++ b/Örnek 31 - Eğer Örneği.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4820707A-B056-44AC-A9A3-6B9718922647}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15545C50-C133-4DE7-A923-8EE2EA414A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15-eşiçalışıyormu" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>yorum</t>
   </si>
@@ -58,12 +61,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -141,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,36 +228,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -278,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,19 +287,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,7 +595,11 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>169</v>
+      </c>
+    </row>
     <row r="3" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -632,96 +613,126 @@
       <c r="C4" s="1">
         <v>169</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="str">
+        <f>IF(C4&gt;$D$2,"UZUN","KISA")</f>
+        <v>KISA</v>
+      </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>168</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9" t="str">
+        <f t="shared" ref="D5:D11" si="0">IF(C5&gt;$D$2,"UZUN","KISA")</f>
+        <v>KISA</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>170</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>UZUN</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="15">
+        <v>20215070019</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>171</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>UZUN</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>198</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>UZUN</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="I8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>180</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>UZUN</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>155</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>KISA</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>135</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>KISA</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>5</v>
       </c>
     </row>
